--- a/inst/tabelas_depara/taurus_regra_2.xlsx
+++ b/inst/tabelas_depara/taurus_regra_2.xlsx
@@ -6646,7 +6646,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -6664,7 +6664,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -6682,7 +6682,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -6700,7 +6700,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -6718,7 +6718,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -6736,7 +6736,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -6754,7 +6754,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -6772,7 +6772,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -6790,7 +6790,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -6808,7 +6808,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -6826,7 +6826,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -6844,7 +6844,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -6862,7 +6862,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -6880,7 +6880,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -6898,7 +6898,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -6916,7 +6916,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -6934,7 +6934,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -6952,7 +6952,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -6970,7 +6970,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -6988,7 +6988,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -7006,7 +7006,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -7024,7 +7024,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -7042,7 +7042,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -7060,7 +7060,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -7078,7 +7078,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -7096,7 +7096,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -7114,7 +7114,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -7132,7 +7132,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -7150,7 +7150,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -7168,7 +7168,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -7186,7 +7186,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -7204,7 +7204,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -7222,7 +7222,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -7240,7 +7240,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
@@ -7258,7 +7258,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -7276,7 +7276,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -7294,7 +7294,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>G</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -7312,7 +7312,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>G</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
@@ -7330,7 +7330,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>G</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
@@ -7348,7 +7348,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>G</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -7366,7 +7366,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>G</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -7384,7 +7384,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>G</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
@@ -7402,7 +7402,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>G</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -7420,7 +7420,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>G</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
@@ -7438,7 +7438,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>G</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
@@ -7456,7 +7456,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>G</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
@@ -7474,7 +7474,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>G</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -7492,7 +7492,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>G</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -7510,7 +7510,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>H</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -7528,7 +7528,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>H</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
@@ -7546,7 +7546,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>H</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
@@ -7564,7 +7564,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>H</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
@@ -7582,7 +7582,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>H</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
@@ -7600,7 +7600,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>H</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
@@ -7618,7 +7618,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>H</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
@@ -7636,7 +7636,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>H</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
@@ -7654,7 +7654,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>H</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -7672,7 +7672,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>H</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -7690,7 +7690,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>H</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
@@ -7708,7 +7708,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>H</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
@@ -7726,7 +7726,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>I</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
@@ -7744,7 +7744,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>I</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
@@ -7762,7 +7762,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>I</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
@@ -7780,7 +7780,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>I</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
@@ -7798,7 +7798,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>I</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
@@ -7816,7 +7816,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>I</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
@@ -7834,7 +7834,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>I</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
@@ -7852,7 +7852,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>I</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
@@ -7870,7 +7870,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>I</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
@@ -7888,7 +7888,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>I</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
@@ -7906,7 +7906,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>I</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
@@ -7924,7 +7924,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>I</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
@@ -7942,7 +7942,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>J</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
@@ -7960,7 +7960,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>J</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
@@ -7978,7 +7978,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>J</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
@@ -7996,7 +7996,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>J</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
@@ -8014,7 +8014,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>J</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
@@ -8032,7 +8032,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>J</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
@@ -8050,7 +8050,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>J</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
@@ -8068,7 +8068,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>J</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
@@ -8086,7 +8086,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>J</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
@@ -8104,7 +8104,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>J</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
@@ -8122,7 +8122,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>J</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
@@ -8140,7 +8140,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>J</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
@@ -8158,7 +8158,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>K</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -8176,7 +8176,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>K</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
@@ -8194,7 +8194,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>K</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
@@ -8212,7 +8212,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>K</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
@@ -8230,7 +8230,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>K</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
@@ -8248,7 +8248,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>K</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
@@ -8266,7 +8266,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>K</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
@@ -8284,7 +8284,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>K</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
@@ -8302,7 +8302,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>K</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
@@ -8320,7 +8320,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>K</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
@@ -8338,7 +8338,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>K</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
@@ -8356,7 +8356,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>K</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
@@ -8374,7 +8374,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>L</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
@@ -8392,7 +8392,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>L</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
@@ -8410,7 +8410,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>L</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
@@ -8428,7 +8428,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>L</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
@@ -8446,7 +8446,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>L</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
@@ -8464,7 +8464,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>L</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
@@ -8482,7 +8482,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>L</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
@@ -8500,7 +8500,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>L</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
@@ -8518,7 +8518,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>L</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
@@ -8536,7 +8536,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>L</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
@@ -8554,7 +8554,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>L</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
@@ -8572,7 +8572,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>L</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
@@ -8590,7 +8590,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
@@ -8608,7 +8608,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
@@ -8626,7 +8626,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
@@ -8644,7 +8644,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
@@ -8662,7 +8662,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
@@ -8680,7 +8680,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
@@ -8698,7 +8698,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
@@ -8716,7 +8716,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
@@ -8734,7 +8734,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
@@ -8752,7 +8752,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
@@ -8770,7 +8770,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
@@ -8788,7 +8788,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
